--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cp-Slc40a1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cp-Slc40a1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.01177504266019</v>
+        <v>3.305598666666666</v>
       </c>
       <c r="H2">
-        <v>3.01177504266019</v>
+        <v>9.916795999999998</v>
       </c>
       <c r="I2">
-        <v>0.0781947369219599</v>
+        <v>0.07839635622493944</v>
       </c>
       <c r="J2">
-        <v>0.0781947369219599</v>
+        <v>0.07839635622493944</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.229537432647512</v>
+        <v>0.3001253333333333</v>
       </c>
       <c r="N2">
-        <v>0.229537432647512</v>
+        <v>0.900376</v>
       </c>
       <c r="O2">
-        <v>0.002916905396342707</v>
+        <v>0.003361079866847668</v>
       </c>
       <c r="P2">
-        <v>0.002916905396342707</v>
+        <v>0.003361079866847668</v>
       </c>
       <c r="Q2">
-        <v>0.6913151110040709</v>
+        <v>0.9920939016995552</v>
       </c>
       <c r="R2">
-        <v>0.6913151110040709</v>
+        <v>8.928845115295998</v>
       </c>
       <c r="S2">
-        <v>0.0002280866500932632</v>
+        <v>0.0002634964145418618</v>
       </c>
       <c r="T2">
-        <v>0.0002280866500932632</v>
+        <v>0.0002634964145418618</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.01177504266019</v>
+        <v>3.305598666666666</v>
       </c>
       <c r="H3">
-        <v>3.01177504266019</v>
+        <v>9.916795999999998</v>
       </c>
       <c r="I3">
-        <v>0.0781947369219599</v>
+        <v>0.07839635622493944</v>
       </c>
       <c r="J3">
-        <v>0.0781947369219599</v>
+        <v>0.07839635622493944</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.20614613460989</v>
+        <v>0.3006913333333334</v>
       </c>
       <c r="N3">
-        <v>4.20614613460989</v>
+        <v>0.902074</v>
       </c>
       <c r="O3">
-        <v>0.05345067345372956</v>
+        <v>0.003367418456074733</v>
       </c>
       <c r="P3">
-        <v>0.05345067345372956</v>
+        <v>0.003367418456074732</v>
       </c>
       <c r="Q3">
-        <v>12.66796595399969</v>
+        <v>0.9939648705448888</v>
       </c>
       <c r="R3">
-        <v>12.66796595399969</v>
+        <v>8.945683834903999</v>
       </c>
       <c r="S3">
-        <v>0.004179561349015969</v>
+        <v>0.0002639933368408703</v>
       </c>
       <c r="T3">
-        <v>0.004179561349015969</v>
+        <v>0.0002639933368408703</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.01177504266019</v>
+        <v>3.305598666666666</v>
       </c>
       <c r="H4">
-        <v>3.01177504266019</v>
+        <v>9.916795999999998</v>
       </c>
       <c r="I4">
-        <v>0.0781947369219599</v>
+        <v>0.07839635622493944</v>
       </c>
       <c r="J4">
-        <v>0.0781947369219599</v>
+        <v>0.07839635622493944</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.6964287745129</v>
+        <v>4.612159000000001</v>
       </c>
       <c r="N4">
-        <v>3.6964287745129</v>
+        <v>13.836477</v>
       </c>
       <c r="O4">
-        <v>0.04697331025798597</v>
+        <v>0.05165120380019107</v>
       </c>
       <c r="P4">
-        <v>0.04697331025798597</v>
+        <v>0.05165120380019106</v>
       </c>
       <c r="Q4">
-        <v>11.13281193004894</v>
+        <v>15.24594664085467</v>
       </c>
       <c r="R4">
-        <v>11.13281193004894</v>
+        <v>137.213519767692</v>
       </c>
       <c r="S4">
-        <v>0.003673065637976813</v>
+        <v>0.004049266172566725</v>
       </c>
       <c r="T4">
-        <v>0.003673065637976813</v>
+        <v>0.004049266172566724</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.01177504266019</v>
+        <v>3.305598666666666</v>
       </c>
       <c r="H5">
-        <v>3.01177504266019</v>
+        <v>9.916795999999998</v>
       </c>
       <c r="I5">
-        <v>0.0781947369219599</v>
+        <v>0.07839635622493944</v>
       </c>
       <c r="J5">
-        <v>0.0781947369219599</v>
+        <v>0.07839635622493944</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>64.5957453854122</v>
+        <v>3.839456666666667</v>
       </c>
       <c r="N5">
-        <v>64.5957453854122</v>
+        <v>11.51837</v>
       </c>
       <c r="O5">
-        <v>0.8208668892138133</v>
+        <v>0.04299777149313418</v>
       </c>
       <c r="P5">
-        <v>0.8208668892138133</v>
+        <v>0.04299777149313417</v>
       </c>
       <c r="Q5">
-        <v>194.5478538138166</v>
+        <v>12.69170283805778</v>
       </c>
       <c r="R5">
-        <v>194.5478538138166</v>
+        <v>114.22532554252</v>
       </c>
       <c r="S5">
-        <v>0.06418747045002174</v>
+        <v>0.003370868610854293</v>
       </c>
       <c r="T5">
-        <v>0.06418747045002174</v>
+        <v>0.003370868610854292</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.01177504266019</v>
+        <v>3.305598666666666</v>
       </c>
       <c r="H6">
-        <v>3.01177504266019</v>
+        <v>9.916795999999998</v>
       </c>
       <c r="I6">
-        <v>0.0781947369219599</v>
+        <v>0.07839635622493944</v>
       </c>
       <c r="J6">
-        <v>0.0781947369219599</v>
+        <v>0.07839635622493944</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.9642496463758</v>
+        <v>66.29420466666666</v>
       </c>
       <c r="N6">
-        <v>5.9642496463758</v>
+        <v>198.882614</v>
       </c>
       <c r="O6">
-        <v>0.07579222167812821</v>
+        <v>0.7424235539168481</v>
       </c>
       <c r="P6">
-        <v>0.07579222167812821</v>
+        <v>0.7424235539168481</v>
       </c>
       <c r="Q6">
-        <v>17.9629782331495</v>
+        <v>219.1420345538604</v>
       </c>
       <c r="R6">
-        <v>17.9629782331495</v>
+        <v>1972.278310984743</v>
       </c>
       <c r="S6">
-        <v>0.005926552834852101</v>
+        <v>0.05820330140265076</v>
       </c>
       <c r="T6">
-        <v>0.005926552834852101</v>
+        <v>0.05820330140265076</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.2743271073368</v>
+        <v>3.305598666666666</v>
       </c>
       <c r="H7">
-        <v>16.2743271073368</v>
+        <v>9.916795999999998</v>
       </c>
       <c r="I7">
-        <v>0.4225304708070461</v>
+        <v>0.07839635622493944</v>
       </c>
       <c r="J7">
-        <v>0.4225304708070461</v>
+        <v>0.07839635622493944</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.229537432647512</v>
+        <v>13.94768066666667</v>
       </c>
       <c r="N7">
-        <v>0.229537432647512</v>
+        <v>41.843042</v>
       </c>
       <c r="O7">
-        <v>0.002916905396342707</v>
+        <v>0.1561989724669042</v>
       </c>
       <c r="P7">
-        <v>0.002916905396342707</v>
+        <v>0.1561989724669042</v>
       </c>
       <c r="Q7">
-        <v>3.735567262283899</v>
+        <v>46.10543461482577</v>
       </c>
       <c r="R7">
-        <v>3.735567262283899</v>
+        <v>414.9489115334319</v>
       </c>
       <c r="S7">
-        <v>0.001232481410416298</v>
+        <v>0.01224543028748493</v>
       </c>
       <c r="T7">
-        <v>0.001232481410416298</v>
+        <v>0.01224543028748493</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.2743271073368</v>
+        <v>16.51874766666667</v>
       </c>
       <c r="H8">
-        <v>16.2743271073368</v>
+        <v>49.55624299999999</v>
       </c>
       <c r="I8">
-        <v>0.4225304708070461</v>
+        <v>0.3917625087172976</v>
       </c>
       <c r="J8">
-        <v>0.4225304708070461</v>
+        <v>0.3917625087172976</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>4.20614613460989</v>
+        <v>0.3001253333333333</v>
       </c>
       <c r="N8">
-        <v>4.20614613460989</v>
+        <v>0.900376</v>
       </c>
       <c r="O8">
-        <v>0.05345067345372956</v>
+        <v>0.003361079866847668</v>
       </c>
       <c r="P8">
-        <v>0.05345067345372956</v>
+        <v>0.003361079866847668</v>
       </c>
       <c r="Q8">
-        <v>68.45219805590162</v>
+        <v>4.957694649707554</v>
       </c>
       <c r="R8">
-        <v>68.45219805590162</v>
+        <v>44.61925184736799</v>
       </c>
       <c r="S8">
-        <v>0.02258453821935804</v>
+        <v>0.001316745080635443</v>
       </c>
       <c r="T8">
-        <v>0.02258453821935804</v>
+        <v>0.001316745080635443</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>16.2743271073368</v>
+        <v>16.51874766666667</v>
       </c>
       <c r="H9">
-        <v>16.2743271073368</v>
+        <v>49.55624299999999</v>
       </c>
       <c r="I9">
-        <v>0.4225304708070461</v>
+        <v>0.3917625087172976</v>
       </c>
       <c r="J9">
-        <v>0.4225304708070461</v>
+        <v>0.3917625087172976</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.6964287745129</v>
+        <v>0.3006913333333334</v>
       </c>
       <c r="N9">
-        <v>3.6964287745129</v>
+        <v>0.902074</v>
       </c>
       <c r="O9">
-        <v>0.04697331025798597</v>
+        <v>0.003367418456074733</v>
       </c>
       <c r="P9">
-        <v>0.04697331025798597</v>
+        <v>0.003367418456074732</v>
       </c>
       <c r="Q9">
-        <v>60.15689100539503</v>
+        <v>4.967044260886889</v>
       </c>
       <c r="R9">
-        <v>60.15689100539503</v>
+        <v>44.703398347982</v>
       </c>
       <c r="S9">
-        <v>0.01984765489867226</v>
+        <v>0.001319228302252766</v>
       </c>
       <c r="T9">
-        <v>0.01984765489867226</v>
+        <v>0.001319228302252766</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>16.2743271073368</v>
+        <v>16.51874766666667</v>
       </c>
       <c r="H10">
-        <v>16.2743271073368</v>
+        <v>49.55624299999999</v>
       </c>
       <c r="I10">
-        <v>0.4225304708070461</v>
+        <v>0.3917625087172976</v>
       </c>
       <c r="J10">
-        <v>0.4225304708070461</v>
+        <v>0.3917625087172976</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>64.5957453854122</v>
+        <v>4.612159000000001</v>
       </c>
       <c r="N10">
-        <v>64.5957453854122</v>
+        <v>13.836477</v>
       </c>
       <c r="O10">
-        <v>0.8208668892138133</v>
+        <v>0.05165120380019107</v>
       </c>
       <c r="P10">
-        <v>0.8208668892138133</v>
+        <v>0.05165120380019106</v>
       </c>
       <c r="Q10">
-        <v>1051.25229014444</v>
+        <v>76.18709071954568</v>
       </c>
       <c r="R10">
-        <v>1051.25229014444</v>
+        <v>685.683816475911</v>
       </c>
       <c r="S10">
-        <v>0.3468412731694279</v>
+        <v>0.02023500517903127</v>
       </c>
       <c r="T10">
-        <v>0.3468412731694279</v>
+        <v>0.02023500517903126</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>16.2743271073368</v>
+        <v>16.51874766666667</v>
       </c>
       <c r="H11">
-        <v>16.2743271073368</v>
+        <v>49.55624299999999</v>
       </c>
       <c r="I11">
-        <v>0.4225304708070461</v>
+        <v>0.3917625087172976</v>
       </c>
       <c r="J11">
-        <v>0.4225304708070461</v>
+        <v>0.3917625087172976</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.9642496463758</v>
+        <v>3.839456666666667</v>
       </c>
       <c r="N11">
-        <v>5.9642496463758</v>
+        <v>11.51837</v>
       </c>
       <c r="O11">
-        <v>0.07579222167812821</v>
+        <v>0.04299777149313418</v>
       </c>
       <c r="P11">
-        <v>0.07579222167812821</v>
+        <v>0.04299777149313417</v>
       </c>
       <c r="Q11">
-        <v>97.0641496949376</v>
+        <v>63.42301585376778</v>
       </c>
       <c r="R11">
-        <v>97.0641496949376</v>
+        <v>570.80714268391</v>
       </c>
       <c r="S11">
-        <v>0.03202452310917153</v>
+        <v>0.01684491482940335</v>
       </c>
       <c r="T11">
-        <v>0.03202452310917153</v>
+        <v>0.01684491482940334</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.95582348282357</v>
+        <v>16.51874766666667</v>
       </c>
       <c r="H12">
-        <v>1.95582348282357</v>
+        <v>49.55624299999999</v>
       </c>
       <c r="I12">
-        <v>0.05077905903958168</v>
+        <v>0.3917625087172976</v>
       </c>
       <c r="J12">
-        <v>0.05077905903958168</v>
+        <v>0.3917625087172976</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.229537432647512</v>
+        <v>66.29420466666666</v>
       </c>
       <c r="N12">
-        <v>0.229537432647512</v>
+        <v>198.882614</v>
       </c>
       <c r="O12">
-        <v>0.002916905396342707</v>
+        <v>0.7424235539168481</v>
       </c>
       <c r="P12">
-        <v>0.002916905396342707</v>
+        <v>0.7424235539168481</v>
       </c>
       <c r="Q12">
-        <v>0.4489347009590376</v>
+        <v>1095.097238651022</v>
       </c>
       <c r="R12">
-        <v>0.4489347009590376</v>
+        <v>9855.8751478592</v>
       </c>
       <c r="S12">
-        <v>0.0001481177113337607</v>
+        <v>0.2908537140132763</v>
       </c>
       <c r="T12">
-        <v>0.0001481177113337607</v>
+        <v>0.2908537140132763</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.95582348282357</v>
+        <v>16.51874766666667</v>
       </c>
       <c r="H13">
-        <v>1.95582348282357</v>
+        <v>49.55624299999999</v>
       </c>
       <c r="I13">
-        <v>0.05077905903958168</v>
+        <v>0.3917625087172976</v>
       </c>
       <c r="J13">
-        <v>0.05077905903958168</v>
+        <v>0.3917625087172976</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.20614613460989</v>
+        <v>13.94768066666667</v>
       </c>
       <c r="N13">
-        <v>4.20614613460989</v>
+        <v>41.843042</v>
       </c>
       <c r="O13">
-        <v>0.05345067345372956</v>
+        <v>0.1561989724669042</v>
       </c>
       <c r="P13">
-        <v>0.05345067345372956</v>
+        <v>0.1561989724669042</v>
       </c>
       <c r="Q13">
-        <v>8.226479382257612</v>
+        <v>230.3982174679117</v>
       </c>
       <c r="R13">
-        <v>8.226479382257612</v>
+        <v>2073.583957211205</v>
       </c>
       <c r="S13">
-        <v>0.002714174903012335</v>
+        <v>0.0611929013126985</v>
       </c>
       <c r="T13">
-        <v>0.002714174903012335</v>
+        <v>0.06119290131269849</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.95582348282357</v>
+        <v>3.159864666666667</v>
       </c>
       <c r="H14">
-        <v>1.95582348282357</v>
+        <v>9.479594000000001</v>
       </c>
       <c r="I14">
-        <v>0.05077905903958168</v>
+        <v>0.07494009437037917</v>
       </c>
       <c r="J14">
-        <v>0.05077905903958168</v>
+        <v>0.07494009437037917</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>3.6964287745129</v>
+        <v>0.3001253333333333</v>
       </c>
       <c r="N14">
-        <v>3.6964287745129</v>
+        <v>0.900376</v>
       </c>
       <c r="O14">
-        <v>0.04697331025798597</v>
+        <v>0.003361079866847668</v>
       </c>
       <c r="P14">
-        <v>0.04697331025798597</v>
+        <v>0.003361079866847668</v>
       </c>
       <c r="Q14">
-        <v>7.229562199777082</v>
+        <v>0.9483554363715555</v>
       </c>
       <c r="R14">
-        <v>7.229562199777082</v>
+        <v>8.535198927344</v>
       </c>
       <c r="S14">
-        <v>0.002385260494874857</v>
+        <v>0.0002518796424079457</v>
       </c>
       <c r="T14">
-        <v>0.002385260494874857</v>
+        <v>0.0002518796424079457</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.95582348282357</v>
+        <v>3.159864666666667</v>
       </c>
       <c r="H15">
-        <v>1.95582348282357</v>
+        <v>9.479594000000001</v>
       </c>
       <c r="I15">
-        <v>0.05077905903958168</v>
+        <v>0.07494009437037917</v>
       </c>
       <c r="J15">
-        <v>0.05077905903958168</v>
+        <v>0.07494009437037917</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>64.5957453854122</v>
+        <v>0.3006913333333334</v>
       </c>
       <c r="N15">
-        <v>64.5957453854122</v>
+        <v>0.902074</v>
       </c>
       <c r="O15">
-        <v>0.8208668892138133</v>
+        <v>0.003367418456074733</v>
       </c>
       <c r="P15">
-        <v>0.8208668892138133</v>
+        <v>0.003367418456074732</v>
       </c>
       <c r="Q15">
-        <v>126.3378757152814</v>
+        <v>0.950143919772889</v>
       </c>
       <c r="R15">
-        <v>126.3378757152814</v>
+        <v>8.551295277956001</v>
       </c>
       <c r="S15">
-        <v>0.04168284823102598</v>
+        <v>0.000252354656882797</v>
       </c>
       <c r="T15">
-        <v>0.04168284823102598</v>
+        <v>0.000252354656882797</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.95582348282357</v>
+        <v>3.159864666666667</v>
       </c>
       <c r="H16">
-        <v>1.95582348282357</v>
+        <v>9.479594000000001</v>
       </c>
       <c r="I16">
-        <v>0.05077905903958168</v>
+        <v>0.07494009437037917</v>
       </c>
       <c r="J16">
-        <v>0.05077905903958168</v>
+        <v>0.07494009437037917</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.9642496463758</v>
+        <v>4.612159000000001</v>
       </c>
       <c r="N16">
-        <v>5.9642496463758</v>
+        <v>13.836477</v>
       </c>
       <c r="O16">
-        <v>0.07579222167812821</v>
+        <v>0.05165120380019107</v>
       </c>
       <c r="P16">
-        <v>0.07579222167812821</v>
+        <v>0.05165120380019106</v>
       </c>
       <c r="Q16">
-        <v>11.66501951580396</v>
+        <v>14.57379826114867</v>
       </c>
       <c r="R16">
-        <v>11.66501951580396</v>
+        <v>131.164184350338</v>
       </c>
       <c r="S16">
-        <v>0.003848657699334735</v>
+        <v>0.003870746087130006</v>
       </c>
       <c r="T16">
-        <v>0.003848657699334735</v>
+        <v>0.003870746087130005</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.0167866255735</v>
+        <v>3.159864666666667</v>
       </c>
       <c r="H17">
-        <v>5.0167866255735</v>
+        <v>9.479594000000001</v>
       </c>
       <c r="I17">
-        <v>0.1302508669551345</v>
+        <v>0.07494009437037917</v>
       </c>
       <c r="J17">
-        <v>0.1302508669551345</v>
+        <v>0.07494009437037917</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.229537432647512</v>
+        <v>3.839456666666667</v>
       </c>
       <c r="N17">
-        <v>0.229537432647512</v>
+        <v>11.51837</v>
       </c>
       <c r="O17">
-        <v>0.002916905396342707</v>
+        <v>0.04299777149313418</v>
       </c>
       <c r="P17">
-        <v>0.002916905396342707</v>
+        <v>0.04299777149313417</v>
       </c>
       <c r="Q17">
-        <v>1.151540322174516</v>
+        <v>12.13216346019778</v>
       </c>
       <c r="R17">
-        <v>1.151540322174516</v>
+        <v>109.18947114178</v>
       </c>
       <c r="S17">
-        <v>0.0003799294566997477</v>
+        <v>0.003222257053411475</v>
       </c>
       <c r="T17">
-        <v>0.0003799294566997477</v>
+        <v>0.003222257053411474</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.0167866255735</v>
+        <v>3.159864666666667</v>
       </c>
       <c r="H18">
-        <v>5.0167866255735</v>
+        <v>9.479594000000001</v>
       </c>
       <c r="I18">
-        <v>0.1302508669551345</v>
+        <v>0.07494009437037917</v>
       </c>
       <c r="J18">
-        <v>0.1302508669551345</v>
+        <v>0.07494009437037917</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.20614613460989</v>
+        <v>66.29420466666666</v>
       </c>
       <c r="N18">
-        <v>4.20614613460989</v>
+        <v>198.882614</v>
       </c>
       <c r="O18">
-        <v>0.05345067345372956</v>
+        <v>0.7424235539168481</v>
       </c>
       <c r="P18">
-        <v>0.05345067345372956</v>
+        <v>0.7424235539168481</v>
       </c>
       <c r="Q18">
-        <v>21.10133767331857</v>
+        <v>209.4807149309684</v>
       </c>
       <c r="R18">
-        <v>21.10133767331857</v>
+        <v>1885.326434378716</v>
       </c>
       <c r="S18">
-        <v>0.006961996556684067</v>
+        <v>0.05563729119332089</v>
       </c>
       <c r="T18">
-        <v>0.006961996556684067</v>
+        <v>0.05563729119332089</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.0167866255735</v>
+        <v>3.159864666666667</v>
       </c>
       <c r="H19">
-        <v>5.0167866255735</v>
+        <v>9.479594000000001</v>
       </c>
       <c r="I19">
-        <v>0.1302508669551345</v>
+        <v>0.07494009437037917</v>
       </c>
       <c r="J19">
-        <v>0.1302508669551345</v>
+        <v>0.07494009437037917</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.6964287745129</v>
+        <v>13.94768066666667</v>
       </c>
       <c r="N19">
-        <v>3.6964287745129</v>
+        <v>41.843042</v>
       </c>
       <c r="O19">
-        <v>0.04697331025798597</v>
+        <v>0.1561989724669042</v>
       </c>
       <c r="P19">
-        <v>0.04697331025798597</v>
+        <v>0.1561989724669042</v>
       </c>
       <c r="Q19">
-        <v>18.54419443836136</v>
+        <v>44.07278332054977</v>
       </c>
       <c r="R19">
-        <v>18.54419443836136</v>
+        <v>396.655049884948</v>
       </c>
       <c r="S19">
-        <v>0.006118314384855184</v>
+        <v>0.01170556573722606</v>
       </c>
       <c r="T19">
-        <v>0.006118314384855184</v>
+        <v>0.01170556573722606</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.0167866255735</v>
+        <v>6.752023</v>
       </c>
       <c r="H20">
-        <v>5.0167866255735</v>
+        <v>20.256069</v>
       </c>
       <c r="I20">
-        <v>0.1302508669551345</v>
+        <v>0.1601325671155233</v>
       </c>
       <c r="J20">
-        <v>0.1302508669551345</v>
+        <v>0.1601325671155233</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>64.5957453854122</v>
+        <v>0.3001253333333333</v>
       </c>
       <c r="N20">
-        <v>64.5957453854122</v>
+        <v>0.900376</v>
       </c>
       <c r="O20">
-        <v>0.8208668892138133</v>
+        <v>0.003361079866847668</v>
       </c>
       <c r="P20">
-        <v>0.8208668892138133</v>
+        <v>0.003361079866847668</v>
       </c>
       <c r="Q20">
-        <v>324.0630715184871</v>
+        <v>2.026453153549333</v>
       </c>
       <c r="R20">
-        <v>324.0630715184871</v>
+        <v>18.238078381944</v>
       </c>
       <c r="S20">
-        <v>0.1069186239748635</v>
+        <v>0.0005382183473586184</v>
       </c>
       <c r="T20">
-        <v>0.1069186239748635</v>
+        <v>0.0005382183473586184</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.0167866255735</v>
+        <v>6.752023</v>
       </c>
       <c r="H21">
-        <v>5.0167866255735</v>
+        <v>20.256069</v>
       </c>
       <c r="I21">
-        <v>0.1302508669551345</v>
+        <v>0.1601325671155233</v>
       </c>
       <c r="J21">
-        <v>0.1302508669551345</v>
+        <v>0.1601325671155233</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.9642496463758</v>
+        <v>0.3006913333333334</v>
       </c>
       <c r="N21">
-        <v>5.9642496463758</v>
+        <v>0.902074</v>
       </c>
       <c r="O21">
-        <v>0.07579222167812821</v>
+        <v>0.003367418456074733</v>
       </c>
       <c r="P21">
-        <v>0.07579222167812821</v>
+        <v>0.003367418456074732</v>
       </c>
       <c r="Q21">
-        <v>29.92136785751959</v>
+        <v>2.030274798567334</v>
       </c>
       <c r="R21">
-        <v>29.92136785751959</v>
+        <v>18.272473187106</v>
       </c>
       <c r="S21">
-        <v>0.009872002582031936</v>
+        <v>0.000539233361923439</v>
       </c>
       <c r="T21">
-        <v>0.009872002582031936</v>
+        <v>0.000539233361923439</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.596101120068247</v>
+        <v>6.752023</v>
       </c>
       <c r="H22">
-        <v>0.596101120068247</v>
+        <v>20.256069</v>
       </c>
       <c r="I22">
-        <v>0.01547657763358434</v>
+        <v>0.1601325671155233</v>
       </c>
       <c r="J22">
-        <v>0.01547657763358434</v>
+        <v>0.1601325671155233</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.229537432647512</v>
+        <v>4.612159000000001</v>
       </c>
       <c r="N22">
-        <v>0.229537432647512</v>
+        <v>13.836477</v>
       </c>
       <c r="O22">
-        <v>0.002916905396342707</v>
+        <v>0.05165120380019107</v>
       </c>
       <c r="P22">
-        <v>0.002916905396342707</v>
+        <v>0.05165120380019106</v>
       </c>
       <c r="Q22">
-        <v>0.1368275206987717</v>
+        <v>31.14140364765701</v>
       </c>
       <c r="R22">
-        <v>0.1368275206987717</v>
+        <v>280.2726328289131</v>
       </c>
       <c r="S22">
-        <v>4.5143712816319E-05</v>
+        <v>0.008271039859131669</v>
       </c>
       <c r="T22">
-        <v>4.5143712816319E-05</v>
+        <v>0.008271039859131668</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.596101120068247</v>
+        <v>6.752023</v>
       </c>
       <c r="H23">
-        <v>0.596101120068247</v>
+        <v>20.256069</v>
       </c>
       <c r="I23">
-        <v>0.01547657763358434</v>
+        <v>0.1601325671155233</v>
       </c>
       <c r="J23">
-        <v>0.01547657763358434</v>
+        <v>0.1601325671155233</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.20614613460989</v>
+        <v>3.839456666666667</v>
       </c>
       <c r="N23">
-        <v>4.20614613460989</v>
+        <v>11.51837</v>
       </c>
       <c r="O23">
-        <v>0.05345067345372956</v>
+        <v>0.04299777149313418</v>
       </c>
       <c r="P23">
-        <v>0.05345067345372956</v>
+        <v>0.04299777149313417</v>
       </c>
       <c r="Q23">
-        <v>2.507288422011683</v>
+        <v>25.92409972083667</v>
       </c>
       <c r="R23">
-        <v>2.507288422011683</v>
+        <v>233.31689748753</v>
       </c>
       <c r="S23">
-        <v>0.0008272334972740109</v>
+        <v>0.006885343529442244</v>
       </c>
       <c r="T23">
-        <v>0.0008272334972740109</v>
+        <v>0.006885343529442243</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.596101120068247</v>
+        <v>6.752023</v>
       </c>
       <c r="H24">
-        <v>0.596101120068247</v>
+        <v>20.256069</v>
       </c>
       <c r="I24">
-        <v>0.01547657763358434</v>
+        <v>0.1601325671155233</v>
       </c>
       <c r="J24">
-        <v>0.01547657763358434</v>
+        <v>0.1601325671155233</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.6964287745129</v>
+        <v>66.29420466666666</v>
       </c>
       <c r="N24">
-        <v>3.6964287745129</v>
+        <v>198.882614</v>
       </c>
       <c r="O24">
-        <v>0.04697331025798597</v>
+        <v>0.7424235539168481</v>
       </c>
       <c r="P24">
-        <v>0.04697331025798597</v>
+        <v>0.7424235539168481</v>
       </c>
       <c r="Q24">
-        <v>2.203445332739637</v>
+        <v>447.6199946760406</v>
       </c>
       <c r="R24">
-        <v>2.203445332739637</v>
+        <v>4028.579952084366</v>
       </c>
       <c r="S24">
-        <v>0.0007269860829141634</v>
+        <v>0.118886189575735</v>
       </c>
       <c r="T24">
-        <v>0.0007269860829141634</v>
+        <v>0.118886189575735</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.596101120068247</v>
+        <v>6.752023</v>
       </c>
       <c r="H25">
-        <v>0.596101120068247</v>
+        <v>20.256069</v>
       </c>
       <c r="I25">
-        <v>0.01547657763358434</v>
+        <v>0.1601325671155233</v>
       </c>
       <c r="J25">
-        <v>0.01547657763358434</v>
+        <v>0.1601325671155233</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>64.5957453854122</v>
+        <v>13.94768066666667</v>
       </c>
       <c r="N25">
-        <v>64.5957453854122</v>
+        <v>41.843042</v>
       </c>
       <c r="O25">
-        <v>0.8208668892138133</v>
+        <v>0.1561989724669042</v>
       </c>
       <c r="P25">
-        <v>0.8208668892138133</v>
+        <v>0.1561989724669042</v>
       </c>
       <c r="Q25">
-        <v>38.50559617588751</v>
+        <v>94.17506065798867</v>
       </c>
       <c r="R25">
-        <v>38.50559617588751</v>
+        <v>847.575545921898</v>
       </c>
       <c r="S25">
-        <v>0.01270421013775645</v>
+        <v>0.02501254244193232</v>
       </c>
       <c r="T25">
-        <v>0.01270421013775645</v>
+        <v>0.02501254244193232</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.596101120068247</v>
+        <v>0.6239926666666668</v>
       </c>
       <c r="H26">
-        <v>0.596101120068247</v>
+        <v>1.871978</v>
       </c>
       <c r="I26">
-        <v>0.01547657763358434</v>
+        <v>0.01479875699099283</v>
       </c>
       <c r="J26">
-        <v>0.01547657763358434</v>
+        <v>0.01479875699099283</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>5.9642496463758</v>
+        <v>0.3001253333333333</v>
       </c>
       <c r="N26">
-        <v>5.9642496463758</v>
+        <v>0.900376</v>
       </c>
       <c r="O26">
-        <v>0.07579222167812821</v>
+        <v>0.003361079866847668</v>
       </c>
       <c r="P26">
-        <v>0.07579222167812821</v>
+        <v>0.003361079866847668</v>
       </c>
       <c r="Q26">
-        <v>3.55529589457126</v>
+        <v>0.1872760070808889</v>
       </c>
       <c r="R26">
-        <v>3.55529589457126</v>
+        <v>1.685484063728</v>
       </c>
       <c r="S26">
-        <v>0.001173004202823385</v>
+        <v>4.973980417679717E-05</v>
       </c>
       <c r="T26">
-        <v>0.001173004202823385</v>
+        <v>4.973980417679717E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2087,57 +2087,57 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>11.6615262271816</v>
+        <v>0.6239926666666668</v>
       </c>
       <c r="H27">
-        <v>11.6615262271816</v>
+        <v>1.871978</v>
       </c>
       <c r="I27">
-        <v>0.3027682886426935</v>
+        <v>0.01479875699099283</v>
       </c>
       <c r="J27">
-        <v>0.3027682886426935</v>
+        <v>0.01479875699099283</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.229537432647512</v>
+        <v>0.3006913333333334</v>
       </c>
       <c r="N27">
-        <v>0.229537432647512</v>
+        <v>0.902074</v>
       </c>
       <c r="O27">
-        <v>0.002916905396342707</v>
+        <v>0.003367418456074733</v>
       </c>
       <c r="P27">
-        <v>0.002916905396342707</v>
+        <v>0.003367418456074732</v>
       </c>
       <c r="Q27">
-        <v>2.676756790938891</v>
+        <v>0.1876291869302223</v>
       </c>
       <c r="R27">
-        <v>2.676756790938891</v>
+        <v>1.688662682372</v>
       </c>
       <c r="S27">
-        <v>0.0008831464549833189</v>
+        <v>4.983360741843423E-05</v>
       </c>
       <c r="T27">
-        <v>0.0008831464549833189</v>
+        <v>4.983360741843422E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2149,57 +2149,57 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>11.6615262271816</v>
+        <v>0.6239926666666668</v>
       </c>
       <c r="H28">
-        <v>11.6615262271816</v>
+        <v>1.871978</v>
       </c>
       <c r="I28">
-        <v>0.3027682886426935</v>
+        <v>0.01479875699099283</v>
       </c>
       <c r="J28">
-        <v>0.3027682886426935</v>
+        <v>0.01479875699099283</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>4.20614613460989</v>
+        <v>4.612159000000001</v>
       </c>
       <c r="N28">
-        <v>4.20614613460989</v>
+        <v>13.836477</v>
       </c>
       <c r="O28">
-        <v>0.05345067345372956</v>
+        <v>0.05165120380019107</v>
       </c>
       <c r="P28">
-        <v>0.05345067345372956</v>
+        <v>0.05165120380019106</v>
       </c>
       <c r="Q28">
-        <v>49.05008346411174</v>
+        <v>2.877953393500668</v>
       </c>
       <c r="R28">
-        <v>49.05008346411174</v>
+        <v>25.90158054150601</v>
       </c>
       <c r="S28">
-        <v>0.01618316892838514</v>
+        <v>0.000764373613331273</v>
       </c>
       <c r="T28">
-        <v>0.01618316892838514</v>
+        <v>0.0007643736133312729</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2211,57 +2211,57 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>11.6615262271816</v>
+        <v>0.6239926666666668</v>
       </c>
       <c r="H29">
-        <v>11.6615262271816</v>
+        <v>1.871978</v>
       </c>
       <c r="I29">
-        <v>0.3027682886426935</v>
+        <v>0.01479875699099283</v>
       </c>
       <c r="J29">
-        <v>0.3027682886426935</v>
+        <v>0.01479875699099283</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>3.6964287745129</v>
+        <v>3.839456666666667</v>
       </c>
       <c r="N29">
-        <v>3.6964287745129</v>
+        <v>11.51837</v>
       </c>
       <c r="O29">
-        <v>0.04697331025798597</v>
+        <v>0.04299777149313418</v>
       </c>
       <c r="P29">
-        <v>0.04697331025798597</v>
+        <v>0.04299777149313417</v>
       </c>
       <c r="Q29">
-        <v>43.10600110089093</v>
+        <v>2.395792803984445</v>
       </c>
       <c r="R29">
-        <v>43.10600110089093</v>
+        <v>21.56213523586</v>
       </c>
       <c r="S29">
-        <v>0.01422202875869269</v>
+        <v>0.0006363135714811315</v>
       </c>
       <c r="T29">
-        <v>0.01422202875869269</v>
+        <v>0.0006363135714811315</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>11.6615262271816</v>
+        <v>0.6239926666666668</v>
       </c>
       <c r="H30">
-        <v>11.6615262271816</v>
+        <v>1.871978</v>
       </c>
       <c r="I30">
-        <v>0.3027682886426935</v>
+        <v>0.01479875699099283</v>
       </c>
       <c r="J30">
-        <v>0.3027682886426935</v>
+        <v>0.01479875699099283</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>64.5957453854122</v>
+        <v>66.29420466666666</v>
       </c>
       <c r="N30">
-        <v>64.5957453854122</v>
+        <v>198.882614</v>
       </c>
       <c r="O30">
-        <v>0.8208668892138133</v>
+        <v>0.7424235539168481</v>
       </c>
       <c r="P30">
-        <v>0.8208668892138133</v>
+        <v>0.7424235539168481</v>
       </c>
       <c r="Q30">
-        <v>753.2849789763292</v>
+        <v>41.36709755449911</v>
       </c>
       <c r="R30">
-        <v>753.2849789763292</v>
+        <v>372.303877990492</v>
       </c>
       <c r="S30">
-        <v>0.2485324632507177</v>
+        <v>0.0109869457588047</v>
       </c>
       <c r="T30">
-        <v>0.2485324632507177</v>
+        <v>0.0109869457588047</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>11.6615262271816</v>
+        <v>0.6239926666666668</v>
       </c>
       <c r="H31">
-        <v>11.6615262271816</v>
+        <v>1.871978</v>
       </c>
       <c r="I31">
-        <v>0.3027682886426935</v>
+        <v>0.01479875699099283</v>
       </c>
       <c r="J31">
-        <v>0.3027682886426935</v>
+        <v>0.01479875699099283</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>5.9642496463758</v>
+        <v>13.94768066666667</v>
       </c>
       <c r="N31">
-        <v>5.9642496463758</v>
+        <v>41.843042</v>
       </c>
       <c r="O31">
-        <v>0.07579222167812821</v>
+        <v>0.1561989724669042</v>
       </c>
       <c r="P31">
-        <v>0.07579222167812821</v>
+        <v>0.1561989724669042</v>
       </c>
       <c r="Q31">
-        <v>69.55225367666998</v>
+        <v>8.703250453008444</v>
       </c>
       <c r="R31">
-        <v>69.55225367666998</v>
+        <v>78.329254077076</v>
       </c>
       <c r="S31">
-        <v>0.02294748124991453</v>
+        <v>0.002311550635780495</v>
       </c>
       <c r="T31">
-        <v>0.02294748124991453</v>
+        <v>0.002311550635780495</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>11.80498133333334</v>
+      </c>
+      <c r="H32">
+        <v>35.41494400000001</v>
+      </c>
+      <c r="I32">
+        <v>0.2799697165808677</v>
+      </c>
+      <c r="J32">
+        <v>0.2799697165808677</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M32">
+        <v>0.3001253333333333</v>
+      </c>
+      <c r="N32">
+        <v>0.900376</v>
+      </c>
+      <c r="O32">
+        <v>0.003361079866847668</v>
+      </c>
+      <c r="P32">
+        <v>0.003361079866847668</v>
+      </c>
+      <c r="Q32">
+        <v>3.542973957660445</v>
+      </c>
+      <c r="R32">
+        <v>31.886765618944</v>
+      </c>
+      <c r="S32">
+        <v>0.0009410005777270022</v>
+      </c>
+      <c r="T32">
+        <v>0.0009410005777270022</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>11.80498133333334</v>
+      </c>
+      <c r="H33">
+        <v>35.41494400000001</v>
+      </c>
+      <c r="I33">
+        <v>0.2799697165808677</v>
+      </c>
+      <c r="J33">
+        <v>0.2799697165808677</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.3006913333333334</v>
+      </c>
+      <c r="N33">
+        <v>0.902074</v>
+      </c>
+      <c r="O33">
+        <v>0.003367418456074733</v>
+      </c>
+      <c r="P33">
+        <v>0.003367418456074732</v>
+      </c>
+      <c r="Q33">
+        <v>3.549655577095112</v>
+      </c>
+      <c r="R33">
+        <v>31.94690019385601</v>
+      </c>
+      <c r="S33">
+        <v>0.000942775190756426</v>
+      </c>
+      <c r="T33">
+        <v>0.0009427751907564259</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>11.80498133333334</v>
+      </c>
+      <c r="H34">
+        <v>35.41494400000001</v>
+      </c>
+      <c r="I34">
+        <v>0.2799697165808677</v>
+      </c>
+      <c r="J34">
+        <v>0.2799697165808677</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>4.612159000000001</v>
+      </c>
+      <c r="N34">
+        <v>13.836477</v>
+      </c>
+      <c r="O34">
+        <v>0.05165120380019107</v>
+      </c>
+      <c r="P34">
+        <v>0.05165120380019106</v>
+      </c>
+      <c r="Q34">
+        <v>54.44645090136536</v>
+      </c>
+      <c r="R34">
+        <v>490.0180581122881</v>
+      </c>
+      <c r="S34">
+        <v>0.01446077288900013</v>
+      </c>
+      <c r="T34">
+        <v>0.01446077288900013</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>11.80498133333334</v>
+      </c>
+      <c r="H35">
+        <v>35.41494400000001</v>
+      </c>
+      <c r="I35">
+        <v>0.2799697165808677</v>
+      </c>
+      <c r="J35">
+        <v>0.2799697165808677</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>3.839456666666667</v>
+      </c>
+      <c r="N35">
+        <v>11.51837</v>
+      </c>
+      <c r="O35">
+        <v>0.04299777149313418</v>
+      </c>
+      <c r="P35">
+        <v>0.04299777149313417</v>
+      </c>
+      <c r="Q35">
+        <v>45.32471428014224</v>
+      </c>
+      <c r="R35">
+        <v>407.9224285212801</v>
+      </c>
+      <c r="S35">
+        <v>0.01203807389854169</v>
+      </c>
+      <c r="T35">
+        <v>0.01203807389854169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>11.80498133333334</v>
+      </c>
+      <c r="H36">
+        <v>35.41494400000001</v>
+      </c>
+      <c r="I36">
+        <v>0.2799697165808677</v>
+      </c>
+      <c r="J36">
+        <v>0.2799697165808677</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>66.29420466666666</v>
+      </c>
+      <c r="N36">
+        <v>198.882614</v>
+      </c>
+      <c r="O36">
+        <v>0.7424235539168481</v>
+      </c>
+      <c r="P36">
+        <v>0.7424235539168481</v>
+      </c>
+      <c r="Q36">
+        <v>782.6018485981796</v>
+      </c>
+      <c r="R36">
+        <v>7043.416637383617</v>
+      </c>
+      <c r="S36">
+        <v>0.2078561119730605</v>
+      </c>
+      <c r="T36">
+        <v>0.2078561119730605</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>11.80498133333334</v>
+      </c>
+      <c r="H37">
+        <v>35.41494400000001</v>
+      </c>
+      <c r="I37">
+        <v>0.2799697165808677</v>
+      </c>
+      <c r="J37">
+        <v>0.2799697165808677</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>13.94768066666667</v>
+      </c>
+      <c r="N37">
+        <v>41.843042</v>
+      </c>
+      <c r="O37">
+        <v>0.1561989724669042</v>
+      </c>
+      <c r="P37">
+        <v>0.1561989724669042</v>
+      </c>
+      <c r="Q37">
+        <v>164.6521099132942</v>
+      </c>
+      <c r="R37">
+        <v>1481.868989219648</v>
+      </c>
+      <c r="S37">
+        <v>0.04373098205178193</v>
+      </c>
+      <c r="T37">
+        <v>0.04373098205178193</v>
       </c>
     </row>
   </sheetData>
